--- a/Files/employee_car.xlsx
+++ b/Files/employee_car.xlsx
@@ -2,25 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://knowledgecornerin-my.sharepoint.com/personal/vaidehi_nair_knowledgecorner_in/Documents/Course Material/Clients/Virtua Search/Excel Python Integration/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="8_{6C9B030E-6713-4C18-B953-147B90AA2F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81F42BCA-6FFB-4B5F-8700-AC6B97312F46}"/>
+  <xr:revisionPtr revIDLastSave="698" documentId="8_{2E8AAB0C-737B-445E-B4D2-0297686C030C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DBCCD4C-8804-4483-8983-F6E5BF09A743}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="19406" windowHeight="11486" xr2:uid="{4BF8A0BA-8322-40F8-A3F9-CC8BA0A975AC}"/>
+    <workbookView xWindow="26772" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4BF8A0BA-8322-40F8-A3F9-CC8BA0A975AC}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="Dashboard" sheetId="9" r:id="rId2"/>
+    <sheet name="Pivot Data" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="27" r:id="rId4"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -155,6 +160,18 @@
   </si>
   <si>
     <t>Brendan</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -297,7 +314,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,12 +492,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC8C8"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -644,17 +655,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -715,6 +725,314 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vaidehi Nair" refreshedDate="45846.476043055554" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="30" xr:uid="{4A9A6ADE-F552-4E90-9532-DED2EB3E2014}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C1:F31" sheet="data"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Designation" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Manager"/>
+        <s v="Team Lead"/>
+        <s v="Senior Manager"/>
+        <s v="Developer"/>
+        <s v="Managing Director"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Age" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="22" maxValue="53"/>
+    </cacheField>
+    <cacheField name="Gender" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Owns Car" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Dummy" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="30">
+  <r>
+    <x v="0"/>
+    <n v="35"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="26"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="36"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="44"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="33"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="33"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="23"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="22"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="35"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="53"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="25"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="41"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="24"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="31"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="34"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="43"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="22"/>
+    <s v="Female"/>
+    <s v="No"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="29"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="35"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="25"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="47"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="22"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="26"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="52"/>
+    <s v="Female"/>
+    <s v="Yes"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="25"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="25"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="27"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="24"/>
+    <s v="Male"/>
+    <s v="No"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="27"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="30"/>
+    <s v="Male"/>
+    <s v="Yes"/>
+    <n v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{506FDD92-FD51-4C51-9BFA-AE24D65E3605}" name="ValueCountPivot" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1034,15 +1352,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7498C91C-418B-4CA6-999F-E648469C0D8C}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="13.53515625" style="1"/>
+    <col min="1" max="2" width="13.53515625" style="1"/>
+    <col min="3" max="3" width="19.69140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="13.53515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
@@ -1066,603 +1387,747 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>88962</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>35</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>67659</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>26</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>117501</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>36</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1">
+        <v>149957</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>32212</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1">
+        <v>63391</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1">
+        <v>14438</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1">
+        <v>22445</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1">
+        <v>72287</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1">
+        <v>195588</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1">
+        <v>53</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1">
+        <v>17240</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1">
+        <v>115116</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1">
+        <v>18027</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1">
+        <v>55891</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1">
+        <v>109132</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1">
+        <v>83327</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1">
+        <v>22125</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1">
+        <v>22</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1">
+        <v>29324</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1">
+        <v>29</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1">
+        <v>54003</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1">
+        <v>35</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1">
+        <v>18390</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1">
+        <v>25</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1">
+        <v>141401</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1">
+        <v>47</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1">
+        <v>19593</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1">
+        <v>22</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1">
+        <v>57093</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1">
+        <v>26</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="1">
+        <v>130556</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="1">
+        <v>52</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="1">
+        <v>22093</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1">
+        <v>25</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1">
+        <v>13058</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1">
+        <v>25</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="1">
+        <v>26180</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="1">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="1">
+        <v>23259</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1">
+        <v>24</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="1">
+        <v>34248</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="1">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="1">
+        <v>27416</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="1">
+        <v>30</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D222F9F3-E5B7-44B5-BCAB-143F3A36B6CD}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.15234375" customWidth="1"/>
+    <col min="2" max="2" width="17.23046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FC82AD-7C8E-4FB9-96C5-DB7EAA6FDC5C}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A3:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.84375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3">
-        <v>149957</v>
-      </c>
-      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3">
-        <v>44</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3">
-        <v>32212</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3">
-        <v>33</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3">
-        <v>63391</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B8" s="4">
         <v>11</v>
       </c>
-      <c r="D7" s="3">
-        <v>33</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="3">
-        <v>14438</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3">
-        <v>23</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3">
-        <v>22445</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3">
-        <v>22</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3">
-        <v>72287</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3">
-        <v>35</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="3">
-        <v>195588</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3">
-        <v>53</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="3">
-        <v>17240</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="3">
-        <v>25</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2">
-        <v>115116</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2">
-        <v>41</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="3">
-        <v>18027</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="3">
-        <v>24</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="3">
-        <v>55891</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="3">
-        <v>31</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="2">
-        <v>109132</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="2">
-        <v>34</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="4">
         <v>30</v>
-      </c>
-      <c r="B17" s="2">
-        <v>83327</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="2">
-        <v>43</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="3">
-        <v>22125</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="3">
-        <v>22</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="3">
-        <v>29324</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="3">
-        <v>29</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="3">
-        <v>54003</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="3">
-        <v>35</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="3">
-        <v>18390</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="3">
-        <v>25</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="3">
-        <v>141401</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="3">
-        <v>47</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="3">
-        <v>19593</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="3">
-        <v>22</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="3">
-        <v>57093</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="3">
-        <v>26</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="3">
-        <v>130556</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="3">
-        <v>52</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="3">
-        <v>22093</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="3">
-        <v>25</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="3">
-        <v>13058</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="3">
-        <v>25</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="3">
-        <v>26180</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="3">
-        <v>27</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="3">
-        <v>23259</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="3">
-        <v>24</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="3">
-        <v>34248</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="3">
-        <v>27</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="3">
-        <v>27416</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="3">
-        <v>30</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
